--- a/ocms/src/test/resources/DownloadedFiles/Attributes (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Attributes (1).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">qatetherfi\administrator</t>
   </si>
   <si>
-    <t xml:space="preserve">16/12/2020 18:15:29</t>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Banglore</t>
@@ -139,21 +139,9 @@
     <t xml:space="preserve">Package</t>
   </si>
   <si>
-    <t xml:space="preserve">16/12/2020 18:16:15</t>
-  </si>
-  <si>
     <t xml:space="preserve">JavaScript</t>
   </si>
   <si>
-    <t xml:space="preserve">16/12/2020 18:16:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jmeter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/12/2020 18:15:54</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kannada</t>
   </si>
   <si>
@@ -169,45 +157,48 @@
     <t xml:space="preserve">Magnetude</t>
   </si>
   <si>
+    <t xml:space="preserve">10/08/2021 09:07:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/12/2020 18:20:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manglore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/12/2020 18:27:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/12/2020 18:29:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/12/2020 18:19:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OffLine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/08/2021 09:09:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostMan</t>
+  </si>
+  <si>
     <t xml:space="preserve">QATETHERFI\Administrator</t>
   </si>
   <si>
-    <t xml:space="preserve">29/07/2021 18:55:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/12/2020 18:20:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manglore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/12/2020 18:27:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/12/2020 18:29:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/12/2020 18:19:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OffLine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/07/2021 18:57:15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Python</t>
   </si>
   <si>
@@ -218,6 +209,9 @@
   </si>
   <si>
     <t xml:space="preserve">16/12/2020 18:13:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestNG</t>
   </si>
   <si>
     <t xml:space="preserve">TMAC</t>
@@ -303,7 +297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -547,7 +541,7 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -556,12 +550,12 @@
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
@@ -576,18 +570,18 @@
         <v>9</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -596,15 +590,15 @@
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -616,18 +610,18 @@
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -636,35 +630,35 @@
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -676,18 +670,18 @@
         <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -696,18 +690,18 @@
         <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -716,18 +710,18 @@
         <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -736,15 +730,15 @@
         <v>9</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -753,15 +747,15 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
@@ -776,12 +770,12 @@
         <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -796,38 +790,38 @@
         <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -836,27 +830,47 @@
         <v>9</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>72</v>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
